--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,114 +43,111 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>instead</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>di</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>product</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>product</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -175,12 +172,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -199,28 +196,28 @@
     <t>friends</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -584,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -703,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7887323943661971</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7727272727272727</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.8279569892473119</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6935483870967742</v>
+        <v>0.6875</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6554054054054054</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.6086956521739131</v>
+        <v>0.5761494252873564</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6407766990291263</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.5810616929698709</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L9">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5966386554621849</v>
+        <v>0.625</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.5311203319502075</v>
+        <v>0.5394190871369294</v>
       </c>
       <c r="L10">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M10">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5818181818181818</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.4795081967213115</v>
+        <v>0.4675963904840033</v>
       </c>
       <c r="L11">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="M11">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5217391304347826</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.382262996941896</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.515625</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4631578947368421</v>
+        <v>0.4360189573459716</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.3554216867469879</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4251968503937008</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.3544973544973545</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4140625</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.2587412587412588</v>
+        <v>0.3046875</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,16 +1371,16 @@
         <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.25</v>
+        <v>0.232</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1403,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3932584269662922</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1421,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.2311827956989247</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3791469194312796</v>
+        <v>0.3671875</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1471,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.2168674698795181</v>
+        <v>0.1980718667835232</v>
       </c>
       <c r="L19">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="M19">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1495,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>195</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3163265306122449</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.1700262927256792</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L20">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1545,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>947</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.301980198019802</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1571,31 +1568,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.1027308192457737</v>
+        <v>0.1116883116883117</v>
       </c>
       <c r="L21">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M21">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1380</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2564102564102564</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.1016042780748663</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1645,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1653,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2474226804123711</v>
+        <v>0.2355072463768116</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1671,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.09192200557103064</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1695,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,13 +1700,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2056962025316456</v>
+        <v>0.23</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1721,31 +1718,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.0534045393858478</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,13 +1750,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1962025316455696</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1771,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1779,25 +1776,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.195</v>
+        <v>0.1936416184971098</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>161</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1805,13 +1802,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1920289855072464</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1823,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>223</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1831,13 +1828,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.191588785046729</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1849,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1857,25 +1854,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1901931649331352</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C29">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>545</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1883,25 +1880,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1786743515850144</v>
+        <v>0.1708766716196137</v>
       </c>
       <c r="C30">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>285</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1909,13 +1906,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1518324607329843</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1927,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1935,25 +1932,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.139917695473251</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>209</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1961,13 +1958,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1343612334801762</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="C33">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1979,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>393</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1987,25 +1984,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1178082191780822</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>322</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2013,25 +2010,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1090225563909774</v>
+        <v>0.1146067415730337</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>237</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2039,25 +2036,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1053811659192825</v>
+        <v>0.1129476584022039</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F36">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>399</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2065,25 +2062,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0821529745042493</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2091,25 +2088,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.07920792079207921</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2117,25 +2114,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07476635514018691</v>
+        <v>0.06605222734254992</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E39">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="F39">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>396</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2143,51 +2140,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05828220858895705</v>
+        <v>0.05761843790012804</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E40">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F40">
-        <v>0.9299999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.05076142131979695</v>
-      </c>
-      <c r="C41">
-        <v>40</v>
-      </c>
-      <c r="D41">
-        <v>46</v>
-      </c>
-      <c r="E41">
-        <v>0.13</v>
-      </c>
-      <c r="F41">
-        <v>0.87</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
